--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Adam15-Itgb3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Adam15-Itgb3.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.1677636692942</v>
+        <v>33.239839</v>
       </c>
       <c r="H2">
-        <v>28.1677636692942</v>
+        <v>99.719517</v>
       </c>
       <c r="I2">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="J2">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N2">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O2">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P2">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q2">
-        <v>11.88094509729686</v>
+        <v>69.54746030093433</v>
       </c>
       <c r="R2">
-        <v>11.88094509729686</v>
+        <v>625.9271427084091</v>
       </c>
       <c r="S2">
-        <v>0.008747664715917779</v>
+        <v>0.0402270564334364</v>
       </c>
       <c r="T2">
-        <v>0.008747664715917779</v>
+        <v>0.0402270564334364</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.1677636692942</v>
+        <v>33.239839</v>
       </c>
       <c r="H3">
-        <v>28.1677636692942</v>
+        <v>99.719517</v>
       </c>
       <c r="I3">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="J3">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N3">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O3">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P3">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q3">
-        <v>69.49966665230775</v>
+        <v>82.04806627318132</v>
       </c>
       <c r="R3">
-        <v>69.49966665230775</v>
+        <v>738.432596458632</v>
       </c>
       <c r="S3">
-        <v>0.05117099496409275</v>
+        <v>0.04745755169123341</v>
       </c>
       <c r="T3">
-        <v>0.05117099496409275</v>
+        <v>0.04745755169123341</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.1677636692942</v>
+        <v>33.239839</v>
       </c>
       <c r="H4">
-        <v>28.1677636692942</v>
+        <v>99.719517</v>
       </c>
       <c r="I4">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="J4">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N4">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O4">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P4">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q4">
-        <v>5.769020987640761</v>
+        <v>10.501628534465</v>
       </c>
       <c r="R4">
-        <v>5.769020987640761</v>
+        <v>94.51465681018499</v>
       </c>
       <c r="S4">
-        <v>0.00424759654435707</v>
+        <v>0.006074263558596604</v>
       </c>
       <c r="T4">
-        <v>0.00424759654435707</v>
+        <v>0.006074263558596604</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.1677636692942</v>
+        <v>33.239839</v>
       </c>
       <c r="H5">
-        <v>28.1677636692942</v>
+        <v>99.719517</v>
       </c>
       <c r="I5">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="J5">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N5">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O5">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P5">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q5">
-        <v>11.39990008797496</v>
+        <v>15.64154915882033</v>
       </c>
       <c r="R5">
-        <v>11.39990008797496</v>
+        <v>140.773942429383</v>
       </c>
       <c r="S5">
-        <v>0.008393482416416126</v>
+        <v>0.009047253170649309</v>
       </c>
       <c r="T5">
-        <v>0.008393482416416126</v>
+        <v>0.009047253170649309</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>28.1677636692942</v>
+        <v>33.239839</v>
       </c>
       <c r="H6">
-        <v>28.1677636692942</v>
+        <v>99.719517</v>
       </c>
       <c r="I6">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="J6">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N6">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O6">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P6">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q6">
-        <v>310.2341216845613</v>
+        <v>375.337148662454</v>
       </c>
       <c r="R6">
-        <v>310.2341216845613</v>
+        <v>3378.034337962086</v>
       </c>
       <c r="S6">
-        <v>0.2284181988646026</v>
+        <v>0.2170993533836749</v>
       </c>
       <c r="T6">
-        <v>0.2284181988646026</v>
+        <v>0.2170993533836749</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>28.1677636692942</v>
+        <v>33.239839</v>
       </c>
       <c r="H7">
-        <v>28.1677636692942</v>
+        <v>99.719517</v>
       </c>
       <c r="I7">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="J7">
-        <v>0.3054781156686812</v>
+        <v>0.324944360259124</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N7">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O7">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P7">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q7">
-        <v>6.112073498755533</v>
+        <v>8.711585644690667</v>
       </c>
       <c r="R7">
-        <v>6.112073498755533</v>
+        <v>78.404270802216</v>
       </c>
       <c r="S7">
-        <v>0.004500178163294813</v>
+        <v>0.005038882021533399</v>
       </c>
       <c r="T7">
-        <v>0.004500178163294813</v>
+        <v>0.005038882021533399</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>10.7906492401856</v>
+        <v>10.86111366666667</v>
       </c>
       <c r="H8">
-        <v>10.7906492401856</v>
+        <v>32.583341</v>
       </c>
       <c r="I8">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="J8">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N8">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O8">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P8">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q8">
-        <v>4.551412483149592</v>
+        <v>22.72462485622856</v>
       </c>
       <c r="R8">
-        <v>4.551412483149592</v>
+        <v>204.521623706057</v>
       </c>
       <c r="S8">
-        <v>0.00335109960195792</v>
+        <v>0.0131441861796914</v>
       </c>
       <c r="T8">
-        <v>0.00335109960195792</v>
+        <v>0.0131441861796914</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10.7906492401856</v>
+        <v>10.86111366666667</v>
       </c>
       <c r="H9">
-        <v>10.7906492401856</v>
+        <v>32.583341</v>
       </c>
       <c r="I9">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="J9">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N9">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O9">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P9">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q9">
-        <v>26.62428348802135</v>
+        <v>26.80919645619289</v>
       </c>
       <c r="R9">
-        <v>26.62428348802135</v>
+        <v>241.282768105736</v>
       </c>
       <c r="S9">
-        <v>0.01960284332159282</v>
+        <v>0.01550674969455162</v>
       </c>
       <c r="T9">
-        <v>0.01960284332159282</v>
+        <v>0.01550674969455162</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.7906492401856</v>
+        <v>10.86111366666667</v>
       </c>
       <c r="H10">
-        <v>10.7906492401856</v>
+        <v>32.583341</v>
       </c>
       <c r="I10">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="J10">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N10">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O10">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P10">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q10">
-        <v>2.210025711226808</v>
+        <v>3.431405946278333</v>
       </c>
       <c r="R10">
-        <v>2.210025711226808</v>
+        <v>30.88265351650499</v>
       </c>
       <c r="S10">
-        <v>0.001627190747625655</v>
+        <v>0.001984764936773878</v>
       </c>
       <c r="T10">
-        <v>0.001627190747625655</v>
+        <v>0.001984764936773878</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.7906492401856</v>
+        <v>10.86111366666667</v>
       </c>
       <c r="H11">
-        <v>10.7906492401856</v>
+        <v>32.583341</v>
       </c>
       <c r="I11">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="J11">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N11">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O11">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P11">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q11">
-        <v>4.367131330223246</v>
+        <v>5.110874434039889</v>
       </c>
       <c r="R11">
-        <v>4.367131330223246</v>
+        <v>45.997869906359</v>
       </c>
       <c r="S11">
-        <v>0.003215417656955985</v>
+        <v>0.002956188959204422</v>
       </c>
       <c r="T11">
-        <v>0.003215417656955985</v>
+        <v>0.002956188959204422</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.7906492401856</v>
+        <v>10.86111366666667</v>
       </c>
       <c r="H12">
-        <v>10.7906492401856</v>
+        <v>32.583341</v>
       </c>
       <c r="I12">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="J12">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N12">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O12">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P12">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q12">
-        <v>118.8460549704349</v>
+        <v>122.6413712456753</v>
       </c>
       <c r="R12">
-        <v>118.8460549704349</v>
+        <v>1103.772341211078</v>
       </c>
       <c r="S12">
-        <v>0.08750359783477435</v>
+        <v>0.07093718937868283</v>
       </c>
       <c r="T12">
-        <v>0.08750359783477435</v>
+        <v>0.07093718937868283</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.7906492401856</v>
+        <v>10.86111366666667</v>
       </c>
       <c r="H13">
-        <v>10.7906492401856</v>
+        <v>32.583341</v>
       </c>
       <c r="I13">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="J13">
-        <v>0.1170241001534283</v>
+        <v>0.1061755332845213</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N13">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O13">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P13">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q13">
-        <v>2.341444000653869</v>
+        <v>2.846509632729778</v>
       </c>
       <c r="R13">
-        <v>2.341444000653869</v>
+        <v>25.618586694568</v>
       </c>
       <c r="S13">
-        <v>0.001723950990521562</v>
+        <v>0.001646454135617124</v>
       </c>
       <c r="T13">
-        <v>0.001723950990521562</v>
+        <v>0.001646454135617124</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>21.7346745703556</v>
+        <v>25.639694</v>
       </c>
       <c r="H14">
-        <v>21.7346745703556</v>
+        <v>76.919082</v>
       </c>
       <c r="I14">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="J14">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N14">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O14">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P14">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q14">
-        <v>9.167517816102139</v>
+        <v>53.64573518521267</v>
       </c>
       <c r="R14">
-        <v>9.167517816102139</v>
+        <v>482.8116166669141</v>
       </c>
       <c r="S14">
-        <v>0.006749831050958229</v>
+        <v>0.0310293144763439</v>
       </c>
       <c r="T14">
-        <v>0.006749831050958229</v>
+        <v>0.0310293144763439</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>21.7346745703556</v>
+        <v>25.639694</v>
       </c>
       <c r="H15">
-        <v>21.7346745703556</v>
+        <v>76.919082</v>
       </c>
       <c r="I15">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="J15">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N15">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O15">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P15">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q15">
-        <v>53.62699911753252</v>
+        <v>63.28813182687467</v>
       </c>
       <c r="R15">
-        <v>53.62699911753252</v>
+        <v>569.593186441872</v>
       </c>
       <c r="S15">
-        <v>0.03948431746458662</v>
+        <v>0.03660658835779582</v>
       </c>
       <c r="T15">
-        <v>0.03948431746458662</v>
+        <v>0.03660658835779581</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>21.7346745703556</v>
+        <v>25.639694</v>
       </c>
       <c r="H16">
-        <v>21.7346745703556</v>
+        <v>76.919082</v>
       </c>
       <c r="I16">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="J16">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N16">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O16">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P16">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q16">
-        <v>4.451464277677434</v>
+        <v>8.100476723889999</v>
       </c>
       <c r="R16">
-        <v>4.451464277677434</v>
+        <v>72.90429051500999</v>
       </c>
       <c r="S16">
-        <v>0.003277510053040047</v>
+        <v>0.004685409544786544</v>
       </c>
       <c r="T16">
-        <v>0.003277510053040047</v>
+        <v>0.004685409544786543</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>21.7346745703556</v>
+        <v>25.639694</v>
       </c>
       <c r="H17">
-        <v>21.7346745703556</v>
+        <v>76.919082</v>
       </c>
       <c r="I17">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="J17">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N17">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O17">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P17">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q17">
-        <v>8.796336175484267</v>
+        <v>12.06517679336867</v>
       </c>
       <c r="R17">
-        <v>8.796336175484267</v>
+        <v>108.586591140318</v>
       </c>
       <c r="S17">
-        <v>0.006476538605429787</v>
+        <v>0.00697863797823985</v>
       </c>
       <c r="T17">
-        <v>0.006476538605429787</v>
+        <v>0.006978637978239849</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>21.7346745703556</v>
+        <v>25.639694</v>
       </c>
       <c r="H18">
-        <v>21.7346745703556</v>
+        <v>76.919082</v>
       </c>
       <c r="I18">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="J18">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N18">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O18">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P18">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q18">
-        <v>239.3813635544108</v>
+        <v>289.517937753484</v>
       </c>
       <c r="R18">
-        <v>239.3813635544108</v>
+        <v>2605.661439781356</v>
       </c>
       <c r="S18">
-        <v>0.1762509539825781</v>
+        <v>0.167460527963306</v>
       </c>
       <c r="T18">
-        <v>0.1762509539825781</v>
+        <v>0.167460527963306</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>21.7346745703556</v>
+        <v>25.639694</v>
       </c>
       <c r="H19">
-        <v>21.7346745703556</v>
+        <v>76.919082</v>
       </c>
       <c r="I19">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="J19">
-        <v>0.2357115570258048</v>
+        <v>0.2506472418253801</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N19">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O19">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P19">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q19">
-        <v>4.716168809324397</v>
+        <v>6.719719376037334</v>
       </c>
       <c r="R19">
-        <v>4.716168809324397</v>
+        <v>60.47747438433601</v>
       </c>
       <c r="S19">
-        <v>0.003472405869211987</v>
+        <v>0.003886763504908005</v>
       </c>
       <c r="T19">
-        <v>0.003472405869211987</v>
+        <v>0.003886763504908004</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.913797014482</v>
+        <v>15.52710233333333</v>
       </c>
       <c r="H20">
-        <v>14.913797014482</v>
+        <v>46.581307</v>
       </c>
       <c r="I20">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="J20">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N20">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O20">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P20">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q20">
-        <v>6.290524359746956</v>
+        <v>32.48723717091545</v>
       </c>
       <c r="R20">
-        <v>6.290524359746956</v>
+        <v>292.3851345382391</v>
       </c>
       <c r="S20">
-        <v>0.004631567399372925</v>
+        <v>0.01879099419858026</v>
       </c>
       <c r="T20">
-        <v>0.004631567399372925</v>
+        <v>0.01879099419858026</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.913797014482</v>
+        <v>15.52710233333333</v>
       </c>
       <c r="H21">
-        <v>14.913797014482</v>
+        <v>46.581307</v>
       </c>
       <c r="I21">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="J21">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N21">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O21">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P21">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q21">
-        <v>36.79752262891139</v>
+        <v>38.32656112671911</v>
       </c>
       <c r="R21">
-        <v>36.79752262891139</v>
+        <v>344.939050140472</v>
       </c>
       <c r="S21">
-        <v>0.02709316369177995</v>
+        <v>0.02216852679699314</v>
       </c>
       <c r="T21">
-        <v>0.02709316369177995</v>
+        <v>0.02216852679699314</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>14.913797014482</v>
+        <v>15.52710233333333</v>
       </c>
       <c r="H22">
-        <v>14.913797014482</v>
+        <v>46.581307</v>
       </c>
       <c r="I22">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="J22">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N22">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O22">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P22">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q22">
-        <v>3.054484871149043</v>
+        <v>4.905555075681666</v>
       </c>
       <c r="R22">
-        <v>3.054484871149043</v>
+        <v>44.149995681135</v>
       </c>
       <c r="S22">
-        <v>0.002248946469648644</v>
+        <v>0.002837429864626209</v>
       </c>
       <c r="T22">
-        <v>0.002248946469648644</v>
+        <v>0.002837429864626209</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>14.913797014482</v>
+        <v>15.52710233333333</v>
       </c>
       <c r="H23">
-        <v>14.913797014482</v>
+        <v>46.581307</v>
       </c>
       <c r="I23">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="J23">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N23">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O23">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P23">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q23">
-        <v>6.035828683225181</v>
+        <v>7.306531612288111</v>
       </c>
       <c r="R23">
-        <v>6.035828683225181</v>
+        <v>65.758784510593</v>
       </c>
       <c r="S23">
-        <v>0.004444040871427498</v>
+        <v>0.004226182497943094</v>
       </c>
       <c r="T23">
-        <v>0.004444040871427498</v>
+        <v>0.004226182497943095</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>14.913797014482</v>
+        <v>15.52710233333333</v>
       </c>
       <c r="H24">
-        <v>14.913797014482</v>
+        <v>46.581307</v>
       </c>
       <c r="I24">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="J24">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N24">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O24">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P24">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q24">
-        <v>164.2575808321381</v>
+        <v>175.3287167481007</v>
       </c>
       <c r="R24">
-        <v>164.2575808321381</v>
+        <v>1577.958450732906</v>
       </c>
       <c r="S24">
-        <v>0.1209390526090574</v>
+        <v>0.1014121601638569</v>
       </c>
       <c r="T24">
-        <v>0.1209390526090574</v>
+        <v>0.1014121601638569</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>14.913797014482</v>
+        <v>15.52710233333333</v>
       </c>
       <c r="H25">
-        <v>14.913797014482</v>
+        <v>46.581307</v>
       </c>
       <c r="I25">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="J25">
-        <v>0.1617394502075968</v>
+        <v>0.1517890725759217</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N25">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O25">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P25">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q25">
-        <v>3.236118584642998</v>
+        <v>4.069384385126223</v>
       </c>
       <c r="R25">
-        <v>3.236118584642998</v>
+        <v>36.624459466136</v>
       </c>
       <c r="S25">
-        <v>0.002382679166310435</v>
+        <v>0.002353779053922091</v>
       </c>
       <c r="T25">
-        <v>0.002382679166310435</v>
+        <v>0.002353779053922091</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>14.1019079537045</v>
+        <v>14.379918</v>
       </c>
       <c r="H26">
-        <v>14.1019079537045</v>
+        <v>43.139754</v>
       </c>
       <c r="I26">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="J26">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N26">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O26">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P26">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q26">
-        <v>5.948075826400713</v>
+        <v>30.086992185362</v>
       </c>
       <c r="R26">
-        <v>5.948075826400713</v>
+        <v>270.782929668258</v>
       </c>
       <c r="S26">
-        <v>0.004379430475278201</v>
+        <v>0.01740266470286416</v>
       </c>
       <c r="T26">
-        <v>0.004379430475278201</v>
+        <v>0.01740266470286417</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>14.1019079537045</v>
+        <v>14.379918</v>
       </c>
       <c r="H27">
-        <v>14.1019079537045</v>
+        <v>43.139754</v>
       </c>
       <c r="I27">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="J27">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N27">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O27">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P27">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q27">
-        <v>34.79431002938928</v>
+        <v>35.494891087376</v>
       </c>
       <c r="R27">
-        <v>34.79431002938928</v>
+        <v>319.454019786384</v>
       </c>
       <c r="S27">
-        <v>0.02561824464857113</v>
+        <v>0.02053065605404099</v>
       </c>
       <c r="T27">
-        <v>0.02561824464857113</v>
+        <v>0.02053065605404099</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>14.1019079537045</v>
+        <v>14.379918</v>
       </c>
       <c r="H28">
-        <v>14.1019079537045</v>
+        <v>43.139754</v>
       </c>
       <c r="I28">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="J28">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N28">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O28">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P28">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q28">
-        <v>2.888202411304096</v>
+        <v>4.543119393329999</v>
       </c>
       <c r="R28">
-        <v>2.888202411304096</v>
+        <v>40.88807453996999</v>
       </c>
       <c r="S28">
-        <v>0.002126516545518064</v>
+        <v>0.002627792868762311</v>
       </c>
       <c r="T28">
-        <v>0.002126516545518064</v>
+        <v>0.002627792868762311</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>14.1019079537045</v>
+        <v>14.379918</v>
       </c>
       <c r="H29">
-        <v>14.1019079537045</v>
+        <v>43.139754</v>
       </c>
       <c r="I29">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="J29">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N29">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O29">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P29">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q29">
-        <v>5.70724547427584</v>
+        <v>6.766705286893999</v>
       </c>
       <c r="R29">
-        <v>5.70724547427584</v>
+        <v>60.900347582046</v>
       </c>
       <c r="S29">
-        <v>0.004202112664569345</v>
+        <v>0.003913940699868524</v>
       </c>
       <c r="T29">
-        <v>0.004202112664569345</v>
+        <v>0.003913940699868525</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>14.1019079537045</v>
+        <v>14.379918</v>
       </c>
       <c r="H30">
-        <v>14.1019079537045</v>
+        <v>43.139754</v>
       </c>
       <c r="I30">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="J30">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N30">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O30">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P30">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q30">
-        <v>155.3155969163123</v>
+        <v>162.374956753548</v>
       </c>
       <c r="R30">
-        <v>155.3155969163123</v>
+        <v>1461.374610781932</v>
       </c>
       <c r="S30">
-        <v>0.1143552769455733</v>
+        <v>0.09391955537180149</v>
       </c>
       <c r="T30">
-        <v>0.1143552769455733</v>
+        <v>0.09391955537180149</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>14.1019079537045</v>
+        <v>14.379918</v>
       </c>
       <c r="H31">
-        <v>14.1019079537045</v>
+        <v>43.139754</v>
       </c>
       <c r="I31">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="J31">
-        <v>0.152934550275527</v>
+        <v>0.1405744851859439</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N31">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O31">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P31">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q31">
-        <v>3.059948205248729</v>
+        <v>3.768727255888</v>
       </c>
       <c r="R31">
-        <v>3.059948205248729</v>
+        <v>33.918545302992</v>
       </c>
       <c r="S31">
-        <v>0.002252968996017019</v>
+        <v>0.002179875488606443</v>
       </c>
       <c r="T31">
-        <v>0.002252968996017019</v>
+        <v>0.002179875488606443</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.49998528270335</v>
+        <v>2.646273333333333</v>
       </c>
       <c r="H32">
-        <v>2.49998528270335</v>
+        <v>7.93882</v>
       </c>
       <c r="I32">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="J32">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.421792274203448</v>
+        <v>2.092292333333333</v>
       </c>
       <c r="N32">
-        <v>0.421792274203448</v>
+        <v>6.276877000000001</v>
       </c>
       <c r="O32">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="P32">
-        <v>0.02863597838021699</v>
+        <v>0.1237967521619938</v>
       </c>
       <c r="Q32">
-        <v>1.054474477866596</v>
+        <v>5.536777407237778</v>
       </c>
       <c r="R32">
-        <v>1.054474477866596</v>
+        <v>49.83099666514001</v>
       </c>
       <c r="S32">
-        <v>0.0007763851367319358</v>
+        <v>0.003202536171077659</v>
       </c>
       <c r="T32">
-        <v>0.0007763851367319358</v>
+        <v>0.003202536171077659</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.49998528270335</v>
+        <v>2.646273333333333</v>
       </c>
       <c r="H33">
-        <v>2.49998528270335</v>
+        <v>7.93882</v>
       </c>
       <c r="I33">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="J33">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>2.46734769107956</v>
+        <v>2.468365333333333</v>
       </c>
       <c r="N33">
-        <v>2.46734769107956</v>
+        <v>7.405096</v>
       </c>
       <c r="O33">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="P33">
-        <v>0.1675111647591553</v>
+        <v>0.1460482393151517</v>
       </c>
       <c r="Q33">
-        <v>6.168332915010992</v>
+        <v>6.531969358524444</v>
       </c>
       <c r="R33">
-        <v>6.168332915010992</v>
+        <v>58.78772422672</v>
       </c>
       <c r="S33">
-        <v>0.004541600668532043</v>
+        <v>0.00377816672053674</v>
       </c>
       <c r="T33">
-        <v>0.004541600668532043</v>
+        <v>0.003778166720536739</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.49998528270335</v>
+        <v>2.646273333333333</v>
       </c>
       <c r="H34">
-        <v>2.49998528270335</v>
+        <v>7.93882</v>
       </c>
       <c r="I34">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="J34">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.204809336494455</v>
+        <v>0.315935</v>
       </c>
       <c r="N34">
-        <v>0.204809336494455</v>
+        <v>0.9478049999999999</v>
       </c>
       <c r="O34">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="P34">
-        <v>0.01390474906871553</v>
+        <v>0.01869324198688273</v>
       </c>
       <c r="Q34">
-        <v>0.5120203269963757</v>
+        <v>0.8360503655666666</v>
       </c>
       <c r="R34">
-        <v>0.5120203269963757</v>
+        <v>7.524453290099999</v>
       </c>
       <c r="S34">
-        <v>0.0003769887085260525</v>
+        <v>0.0004835812133371834</v>
       </c>
       <c r="T34">
-        <v>0.0003769887085260525</v>
+        <v>0.0004835812133371834</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.49998528270335</v>
+        <v>2.646273333333333</v>
       </c>
       <c r="H35">
-        <v>2.49998528270335</v>
+        <v>7.93882</v>
       </c>
       <c r="I35">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="J35">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.404714418290936</v>
+        <v>0.4705663333333334</v>
       </c>
       <c r="N35">
-        <v>0.404714418290936</v>
+        <v>1.411699</v>
       </c>
       <c r="O35">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="P35">
-        <v>0.02747654246211085</v>
+        <v>0.02784246867197405</v>
       </c>
       <c r="Q35">
-        <v>1.011780089425188</v>
+        <v>1.245247139464444</v>
       </c>
       <c r="R35">
-        <v>1.011780089425188</v>
+        <v>11.20722425518</v>
       </c>
       <c r="S35">
-        <v>0.000744950247312106</v>
+        <v>0.0007202653660688523</v>
       </c>
       <c r="T35">
-        <v>0.000744950247312106</v>
+        <v>0.0007202653660688523</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.49998528270335</v>
+        <v>2.646273333333333</v>
       </c>
       <c r="H36">
-        <v>2.49998528270335</v>
+        <v>7.93882</v>
       </c>
       <c r="I36">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="J36">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>11.0138002195307</v>
+        <v>11.291786</v>
       </c>
       <c r="N36">
-        <v>11.0138002195307</v>
+        <v>33.875358</v>
       </c>
       <c r="O36">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="P36">
-        <v>0.7477399759540974</v>
+        <v>0.6681123907199095</v>
       </c>
       <c r="Q36">
-        <v>27.53433845546168</v>
+        <v>29.88115217750667</v>
       </c>
       <c r="R36">
-        <v>27.53433845546168</v>
+        <v>268.93036959756</v>
       </c>
       <c r="S36">
-        <v>0.02027289571751162</v>
+        <v>0.01728360445858744</v>
       </c>
       <c r="T36">
-        <v>0.02027289571751162</v>
+        <v>0.01728360445858744</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.49998528270335</v>
+        <v>2.646273333333333</v>
       </c>
       <c r="H37">
-        <v>2.49998528270335</v>
+        <v>7.93882</v>
       </c>
       <c r="I37">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="J37">
-        <v>0.02711222666896191</v>
+        <v>0.02586930686910907</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.216988241257446</v>
+        <v>0.2620826666666667</v>
       </c>
       <c r="N37">
-        <v>0.216988241257446</v>
+        <v>0.7862480000000001</v>
       </c>
       <c r="O37">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="P37">
-        <v>0.01473158937570397</v>
+        <v>0.01550690714408826</v>
       </c>
       <c r="Q37">
-        <v>0.5424674096632989</v>
+        <v>0.6935423719288889</v>
       </c>
       <c r="R37">
-        <v>0.5424674096632989</v>
+        <v>6.241881347360001</v>
       </c>
       <c r="S37">
-        <v>0.0003994061903481573</v>
+        <v>0.0004011529395011989</v>
       </c>
       <c r="T37">
-        <v>0.0003994061903481573</v>
+        <v>0.0004011529395011989</v>
       </c>
     </row>
   </sheetData>
